--- a/biology/Biologie cellulaire et moléculaire/Bleu_de_bromophénol/Bleu_de_bromophénol.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Bleu_de_bromophénol/Bleu_de_bromophénol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bleu_de_bromoph%C3%A9nol</t>
+          <t>Bleu_de_bromophénol</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le bleu de bromophénol (aussi appelé BBP) ou tétrabromophénolsulfonephthaléine est un colorant de la famille des sulfonephtaléines utilisé comme indicateur coloré de pH.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bleu_de_bromoph%C3%A9nol</t>
+          <t>Bleu_de_bromophénol</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Utilisation en biologie moléculaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bleu de bromophénol est également utilisé comme marqueur coloré afin de vérifier le bon déroulement d'une électrophorèse sur gel de polyacrylamide ou d'une électrophorèse en gel d'agarose. 
 Le bleu de bromophénol est légèrement chargé négativement à un pH modéré : il migre alors dans la même direction que de l'ADN ou des protéines sur le gel. 
